--- a/data/output/FV2304_FV2210/UTILMD/11123.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11123.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4346" uniqueCount="322">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4367" uniqueCount="322">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1086,6 +1086,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U204" totalsRowShown="0">
+  <autoFilter ref="A1:U204"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1375,7 +1405,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10726,5 +10759,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11123.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11123.xlsx
@@ -2106,7 +2106,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -4000,7 +4000,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4588,7 +4588,7 @@
         <v>302</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -4740,7 +4740,7 @@
         <v>302</v>
       </c>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -5120,7 +5120,7 @@
         <v>302</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -5258,7 +5258,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5408,7 +5408,7 @@
         <v>304</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5878,7 +5878,7 @@
         <v>308</v>
       </c>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -6124,7 +6124,7 @@
         <v>310</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6612,7 +6612,7 @@
         <v>312</v>
       </c>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -6800,7 +6800,7 @@
         <v>312</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -6988,7 +6988,7 @@
         <v>312</v>
       </c>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -7630,7 +7630,7 @@
         <v>314</v>
       </c>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -8080,7 +8080,7 @@
         <v>315</v>
       </c>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -8380,7 +8380,7 @@
         <v>316</v>
       </c>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -8516,7 +8516,7 @@
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -8760,7 +8760,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -8958,7 +8958,7 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -9360,7 +9360,7 @@
         <v>318</v>
       </c>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -9498,7 +9498,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -9646,7 +9646,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -10044,7 +10044,7 @@
         <v>321</v>
       </c>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -10182,7 +10182,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -10330,7 +10330,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -10556,7 +10556,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -10948,7 +10948,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -11350,7 +11350,7 @@
         <v>322</v>
       </c>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -11488,7 +11488,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -11862,7 +11862,7 @@
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N202" s="2"/>
